--- a/public/template/消警记录.xlsx
+++ b/public/template/消警记录.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11700"/>
@@ -176,11 +176,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -303,74 +303,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -379,7 +316,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="535353"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -660,14 +597,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -675,284 +612,291 @@
     <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="3">
-        <v>100</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="E3" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
         <v>10209358</v>
       </c>
-      <c r="K2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="3">
-        <v>100</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="I3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="E4" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1">
         <v>10209358</v>
       </c>
-      <c r="K3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="3">
-        <v>100</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="I4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E5" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J5" s="1">
         <v>300</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="3">
-        <v>100</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="E6" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
         <v>10209358</v>
       </c>
-      <c r="K5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="3">
-        <v>100</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="E7" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
         <v>10209358</v>
       </c>
-      <c r="K6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="3">
-        <v>100</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="E8" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1">
         <v>10209358</v>
       </c>
-      <c r="K7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3">
-        <v>100</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="I8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>100</v>
+      </c>
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="E9" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5">
         <v>10209288</v>
       </c>
-      <c r="K8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="3">
-        <v>100</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="I9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>100</v>
+      </c>
+      <c r="B10" s="3">
         <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="5">
-        <v>10209288</v>
-      </c>
-      <c r="K9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3">
-        <v>100</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -969,286 +913,286 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="5">
+      <c r="H10" s="5">
         <v>10209288</v>
       </c>
-      <c r="K10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>100</v>
       </c>
       <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10209288</v>
+      </c>
+      <c r="I11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>100</v>
+      </c>
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="E12" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5">
         <v>10209288</v>
       </c>
-      <c r="K11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="3">
-        <v>100</v>
-      </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="I12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>100</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="E13" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5">
         <v>10209288</v>
       </c>
-      <c r="K12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="3">
-        <v>100</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="I13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>100</v>
+      </c>
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="5">
+      <c r="E14" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5">
         <v>10209288</v>
       </c>
-      <c r="K13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3">
-        <v>100</v>
-      </c>
-      <c r="B14" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="I14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>100</v>
+      </c>
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5">
+      <c r="E15" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5">
         <v>10209288</v>
       </c>
-      <c r="K14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="3">
-        <v>100</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="I15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>100</v>
+      </c>
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="5">
+      <c r="E16" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5">
         <v>10209288</v>
       </c>
-      <c r="K15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="3">
-        <v>100</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>100</v>
+      </c>
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="5">
+      <c r="E17" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5">
         <v>10209288</v>
       </c>
-      <c r="K16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3">
-        <v>100</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="I17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="5">
+      <c r="E18" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5">
         <v>10209288</v>
       </c>
-      <c r="K17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="3">
-        <v>100</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="I18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>100</v>
+      </c>
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="E19" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5">
         <v>11102440</v>
       </c>
-      <c r="K18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="3">
-        <v>200</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="5">
-        <v>11102440</v>
-      </c>
-      <c r="K19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>200</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2">
         <v>42738</v>
@@ -1259,25 +1203,25 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="5">
+      <c r="H20" s="5">
         <v>11102440</v>
       </c>
-      <c r="K20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>200</v>
       </c>
       <c r="B21" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2">
         <v>42738</v>
@@ -1286,28 +1230,27 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="1">
-        <v>300</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5">
+        <v>11102440</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>200</v>
       </c>
       <c r="B22" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
         <v>42738</v>
@@ -1316,27 +1259,28 @@
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="5">
-        <v>11102440</v>
-      </c>
-      <c r="K22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>15</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="J22" s="1">
+        <v>300</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>200</v>
       </c>
       <c r="B23" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2">
         <v>42738</v>
@@ -1347,25 +1291,25 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="5">
+      <c r="H23" s="5">
         <v>11102440</v>
       </c>
-      <c r="K23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>200</v>
       </c>
       <c r="B24" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2">
         <v>42738</v>
@@ -1376,25 +1320,25 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="5">
+      <c r="H24" s="5">
         <v>11102440</v>
       </c>
-      <c r="K24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>200</v>
       </c>
       <c r="B25" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2">
         <v>42738</v>
@@ -1405,25 +1349,25 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="5">
+      <c r="H25" s="5">
         <v>11102440</v>
       </c>
-      <c r="K25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>200</v>
       </c>
       <c r="B26" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2">
         <v>42738</v>
@@ -1434,19 +1378,19 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="5">
+      <c r="H26" s="5">
         <v>11102440</v>
       </c>
-      <c r="K26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="I26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>200</v>
       </c>
       <c r="B27" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
@@ -1463,83 +1407,83 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J27" s="5">
+      <c r="H27" s="5">
         <v>11102440</v>
       </c>
-      <c r="K27" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="I27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>200</v>
       </c>
       <c r="B28" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2">
         <v>42738</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>50</v>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J28" s="5">
-        <v>11249919</v>
-      </c>
-      <c r="K28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="H28" s="5">
+        <v>11102440</v>
+      </c>
+      <c r="I28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>200</v>
       </c>
       <c r="B29" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2">
         <v>42738</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>13</v>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="5">
+      <c r="H29" s="5">
         <v>11249919</v>
       </c>
-      <c r="K29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="I29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>200</v>
       </c>
       <c r="B30" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2">
         <v>42738</v>
@@ -1550,25 +1494,25 @@
       <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J30" s="5">
+      <c r="H30" s="5">
         <v>11249919</v>
       </c>
-      <c r="K30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="I30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>200</v>
       </c>
       <c r="B31" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
         <v>42738</v>
@@ -1579,25 +1523,25 @@
       <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="5">
+      <c r="H31" s="5">
         <v>11249919</v>
       </c>
-      <c r="K31" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="I31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>200</v>
       </c>
       <c r="B32" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2">
         <v>42738</v>
@@ -1608,25 +1552,25 @@
       <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="5">
+      <c r="H32" s="5">
         <v>11249919</v>
       </c>
-      <c r="K32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="I32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>200</v>
       </c>
       <c r="B33" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
         <v>42738</v>
@@ -1637,25 +1581,25 @@
       <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J33" s="5">
+      <c r="H33" s="5">
         <v>11249919</v>
       </c>
-      <c r="K33" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="I33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>200</v>
       </c>
       <c r="B34" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2">
         <v>42738</v>
@@ -1666,39 +1610,68 @@
       <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J34" s="5">
+      <c r="H34" s="5">
         <v>11249919</v>
       </c>
-      <c r="K34" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="I34" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>200</v>
       </c>
       <c r="B35" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="5">
+        <v>11249919</v>
+      </c>
+      <c r="I35" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>200</v>
+      </c>
+      <c r="B36" s="3">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="5">
+      <c r="E36" s="2">
+        <v>42738</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="5">
         <v>11249919</v>
       </c>
-      <c r="K35" s="1">
+      <c r="I36" s="1">
         <v>100</v>
       </c>
     </row>

--- a/public/template/消警记录.xlsx
+++ b/public/template/消警记录.xlsx
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,73 +619,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3">
+        <v>100</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42738</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10209358</v>
+      </c>
+      <c r="I2" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -693,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>42738</v>
@@ -722,28 +716,28 @@
         <v>100</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>42738</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10209358</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="J4" s="1">
+        <v>300</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -751,28 +745,28 @@
         <v>100</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>42738</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>49</v>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>300</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10209358</v>
+      </c>
+      <c r="I5" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -780,13 +774,13 @@
         <v>100</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>42738</v>
@@ -809,13 +803,13 @@
         <v>100</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>42738</v>
@@ -833,18 +827,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>100</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>42738</v>
@@ -855,8 +849,8 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1">
-        <v>10209358</v>
+      <c r="H8" s="5">
+        <v>10209288</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -867,13 +861,13 @@
         <v>100</v>
       </c>
       <c r="B9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>42738</v>
@@ -896,7 +890,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -925,13 +919,13 @@
         <v>100</v>
       </c>
       <c r="B11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>42738</v>
@@ -954,13 +948,13 @@
         <v>100</v>
       </c>
       <c r="B12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>42738</v>
@@ -983,13 +977,13 @@
         <v>100</v>
       </c>
       <c r="B13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2">
         <v>42738</v>
@@ -1012,13 +1006,13 @@
         <v>100</v>
       </c>
       <c r="B14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2">
         <v>42738</v>
@@ -1041,13 +1035,13 @@
         <v>100</v>
       </c>
       <c r="B15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2">
         <v>42738</v>
@@ -1070,13 +1064,13 @@
         <v>100</v>
       </c>
       <c r="B16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2">
         <v>42738</v>
@@ -1099,13 +1093,13 @@
         <v>100</v>
       </c>
       <c r="B17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
         <v>42738</v>
@@ -1128,13 +1122,13 @@
         <v>100</v>
       </c>
       <c r="B18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="2">
         <v>42738</v>
@@ -1146,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="H18" s="5">
-        <v>10209288</v>
+        <v>11102440</v>
       </c>
       <c r="I18" s="1">
         <v>100</v>
@@ -1154,16 +1148,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B19" s="3">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2">
         <v>42738</v>
@@ -1186,13 +1180,13 @@
         <v>200</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2">
         <v>42738</v>
@@ -1215,13 +1209,13 @@
         <v>200</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
         <v>42738</v>
@@ -1230,13 +1224,14 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="5">
-        <v>11102440</v>
-      </c>
-      <c r="I21" s="1">
-        <v>100</v>
+        <v>15</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="J21" s="1">
+        <v>300</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1244,13 +1239,13 @@
         <v>200</v>
       </c>
       <c r="B22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2">
         <v>42738</v>
@@ -1259,14 +1254,13 @@
         <v>13</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="J22" s="1">
-        <v>300</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="H22" s="5">
+        <v>11102440</v>
+      </c>
+      <c r="I22" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1274,13 +1268,13 @@
         <v>200</v>
       </c>
       <c r="B23" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2">
         <v>42738</v>
@@ -1303,13 +1297,13 @@
         <v>200</v>
       </c>
       <c r="B24" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2">
         <v>42738</v>
@@ -1332,13 +1326,13 @@
         <v>200</v>
       </c>
       <c r="B25" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="2">
         <v>42738</v>
@@ -1361,13 +1355,13 @@
         <v>200</v>
       </c>
       <c r="B26" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2">
         <v>42738</v>
@@ -1390,7 +1384,7 @@
         <v>200</v>
       </c>
       <c r="B27" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
@@ -1419,25 +1413,25 @@
         <v>200</v>
       </c>
       <c r="B28" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2">
         <v>42738</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>13</v>
+      <c r="F28" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5">
-        <v>11102440</v>
+        <v>11249919</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
@@ -1448,19 +1442,19 @@
         <v>200</v>
       </c>
       <c r="B29" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2">
         <v>42738</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>50</v>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
@@ -1477,13 +1471,13 @@
         <v>200</v>
       </c>
       <c r="B30" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2">
         <v>42738</v>
@@ -1506,13 +1500,13 @@
         <v>200</v>
       </c>
       <c r="B31" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2">
         <v>42738</v>
@@ -1535,13 +1529,13 @@
         <v>200</v>
       </c>
       <c r="B32" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2">
         <v>42738</v>
@@ -1564,13 +1558,13 @@
         <v>200</v>
       </c>
       <c r="B33" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2">
         <v>42738</v>
@@ -1593,13 +1587,13 @@
         <v>200</v>
       </c>
       <c r="B34" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2">
         <v>42738</v>
@@ -1622,13 +1616,13 @@
         <v>200</v>
       </c>
       <c r="B35" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2">
         <v>42738</v>
@@ -1643,35 +1637,6 @@
         <v>11249919</v>
       </c>
       <c r="I35" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>200</v>
-      </c>
-      <c r="B36" s="3">
-        <v>17</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="2">
-        <v>42738</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="5">
-        <v>11249919</v>
-      </c>
-      <c r="I36" s="1">
         <v>100</v>
       </c>
     </row>

--- a/public/template/消警记录.xlsx
+++ b/public/template/消警记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>设备编号</t>
   </si>
@@ -180,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -239,6 +239,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -272,7 +278,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -288,6 +294,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -601,7 +610,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>100</v>
       </c>
@@ -675,14 +684,14 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1">
-        <v>10209358</v>
+      <c r="H2" s="5">
+        <v>11249923</v>
       </c>
       <c r="I2" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>100</v>
       </c>
@@ -704,14 +713,14 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1">
-        <v>10209358</v>
+      <c r="H3" s="5">
+        <v>10209348</v>
       </c>
       <c r="I3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>100</v>
       </c>
@@ -730,9 +739,10 @@
       <c r="F4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="5"/>
       <c r="J4" s="1">
         <v>300</v>
       </c>
@@ -740,7 +750,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>100</v>
       </c>
@@ -762,14 +772,14 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1">
-        <v>10209358</v>
+      <c r="H5" s="5">
+        <v>11249919</v>
       </c>
       <c r="I5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>100</v>
       </c>
@@ -791,14 +801,14 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
-        <v>10209358</v>
+      <c r="H6" s="5">
+        <v>11249919</v>
       </c>
       <c r="I6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>100</v>
       </c>
@@ -820,8 +830,8 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1">
-        <v>10209358</v>
+      <c r="H7" s="5">
+        <v>11249907</v>
       </c>
       <c r="I7" s="1">
         <v>100</v>
@@ -850,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="5">
-        <v>10209288</v>
+        <v>10061964</v>
       </c>
       <c r="I8" s="1">
         <v>100</v>
@@ -879,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="5">
-        <v>10209288</v>
+        <v>10209315</v>
       </c>
       <c r="I9" s="1">
         <v>100</v>
@@ -908,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="5">
-        <v>10209288</v>
+        <v>10209313</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
@@ -937,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="5">
-        <v>10209288</v>
+        <v>10209315</v>
       </c>
       <c r="I11" s="1">
         <v>100</v>
@@ -966,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="5">
-        <v>10209288</v>
+        <v>11249919</v>
       </c>
       <c r="I12" s="1">
         <v>100</v>
@@ -995,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="H13" s="5">
-        <v>10209288</v>
+        <v>10209315</v>
       </c>
       <c r="I13" s="1">
         <v>100</v>
@@ -1024,7 +1034,7 @@
         <v>14</v>
       </c>
       <c r="H14" s="5">
-        <v>10209288</v>
+        <v>10209315</v>
       </c>
       <c r="I14" s="1">
         <v>100</v>
@@ -1082,13 +1092,13 @@
         <v>14</v>
       </c>
       <c r="H16" s="5">
-        <v>10209288</v>
+        <v>10209315</v>
       </c>
       <c r="I16" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>100</v>
       </c>
@@ -1111,13 +1121,13 @@
         <v>14</v>
       </c>
       <c r="H17" s="5">
-        <v>10209288</v>
+        <v>10209315</v>
       </c>
       <c r="I17" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>100</v>
       </c>
@@ -1140,13 +1150,13 @@
         <v>14</v>
       </c>
       <c r="H18" s="5">
-        <v>11102440</v>
+        <v>10209288</v>
       </c>
       <c r="I18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>200</v>
       </c>
@@ -1169,13 +1179,13 @@
         <v>14</v>
       </c>
       <c r="H19" s="5">
-        <v>11102440</v>
+        <v>11249923</v>
       </c>
       <c r="I19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>200</v>
       </c>
@@ -1198,13 +1208,13 @@
         <v>14</v>
       </c>
       <c r="H20" s="5">
-        <v>11102440</v>
+        <v>10209348</v>
       </c>
       <c r="I20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>200</v>
       </c>
@@ -1224,17 +1234,16 @@
         <v>13</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="J21" s="1">
-        <v>300</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5">
+        <v>10889994</v>
+      </c>
+      <c r="I21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>200</v>
       </c>
@@ -1257,13 +1266,13 @@
         <v>14</v>
       </c>
       <c r="H22" s="5">
-        <v>11102440</v>
+        <v>11249919</v>
       </c>
       <c r="I22" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>200</v>
       </c>
@@ -1286,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="H23" s="5">
-        <v>11102440</v>
+        <v>11249919</v>
       </c>
       <c r="I23" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>200</v>
       </c>
@@ -1315,13 +1324,13 @@
         <v>14</v>
       </c>
       <c r="H24" s="5">
-        <v>11102440</v>
+        <v>11249907</v>
       </c>
       <c r="I24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>200</v>
       </c>
@@ -1344,13 +1353,13 @@
         <v>14</v>
       </c>
       <c r="H25" s="5">
-        <v>11102440</v>
+        <v>10061964</v>
       </c>
       <c r="I25" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>200</v>
       </c>
@@ -1373,13 +1382,13 @@
         <v>14</v>
       </c>
       <c r="H26" s="5">
-        <v>11102440</v>
+        <v>10209315</v>
       </c>
       <c r="I26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>200</v>
       </c>
@@ -1402,13 +1411,13 @@
         <v>14</v>
       </c>
       <c r="H27" s="5">
-        <v>11102440</v>
+        <v>10209313</v>
       </c>
       <c r="I27" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>200</v>
       </c>
@@ -1431,13 +1440,13 @@
         <v>14</v>
       </c>
       <c r="H28" s="5">
-        <v>11249919</v>
+        <v>10209315</v>
       </c>
       <c r="I28" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>200</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>200</v>
       </c>
@@ -1489,13 +1498,13 @@
         <v>14</v>
       </c>
       <c r="H30" s="5">
-        <v>11249919</v>
+        <v>10209315</v>
       </c>
       <c r="I30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>200</v>
       </c>
@@ -1518,13 +1527,13 @@
         <v>14</v>
       </c>
       <c r="H31" s="5">
-        <v>11249919</v>
+        <v>10209315</v>
       </c>
       <c r="I31" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>200</v>
       </c>
@@ -1547,7 +1556,7 @@
         <v>14</v>
       </c>
       <c r="H32" s="5">
-        <v>11249919</v>
+        <v>10209288</v>
       </c>
       <c r="I32" s="1">
         <v>100</v>
@@ -1576,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="5">
-        <v>11249919</v>
+        <v>10209315</v>
       </c>
       <c r="I33" s="1">
         <v>100</v>
@@ -1605,7 +1614,7 @@
         <v>14</v>
       </c>
       <c r="H34" s="5">
-        <v>11249919</v>
+        <v>10209315</v>
       </c>
       <c r="I34" s="1">
         <v>100</v>
@@ -1634,7 +1643,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="5">
-        <v>11249919</v>
+        <v>10209288</v>
       </c>
       <c r="I35" s="1">
         <v>100</v>
